--- a/biology/Botanique/Hernandiaceae/Hernandiaceae.xlsx
+++ b/biology/Botanique/Hernandiaceae/Hernandiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Hernandiaceae ou Hernandiacées regroupe des plantes angiospermes de divergence ancienne.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Hernandia lequel a été donné  en hommage au botaniste et médecin espagnol Francisco Hernández de Toledo (1514-1587) qui prit part à la première expédition scientifique en Amérique
-[2].
+.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La classification phylogénétique APG II (2003)[3] l'a rapproché des  Gyrocarpacées et considère qu'elle est maintenant formée de 2 sous-familles :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La classification phylogénétique APG II (2003) l'a rapproché des  Gyrocarpacées et considère qu'elle est maintenant formée de 2 sous-familles :
 Gyrocarpoidées avec 10 espèces en 2 genres principalement originaires du continent américain.
 Hernandioidées avec 44 espèces en 3 genres originaires principalement de Malaisie et de Madagascar.</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des arbres, des arbustes ou des lianes, producteurs d'huiles essentielles, à feuilles persistantes des régions tropicales.
 Le genre Illigera (en) se compose de plantes grimpantes à feuilles composées et pétiole sensitif.
@@ -607,26 +625,28 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (3 août 2014)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (3 août 2014) :
 Gyrocarpus
 Hazomalania (es)
 Hernandia
 Illigera (en)
 Sparattanthelium (es)
-Selon DELTA Angio           (3 août 2014)[5] :
+Selon DELTA Angio           (3 août 2014) :
 Hazomalania
 Hernandia
 Illigera
-Selon GRIN            (3 août 2014)[6] :
+Selon GRIN            (3 août 2014) :
 Gyrocarpus Jacq.
 Hernandia L.
 Illigera Blume
 Sparattanthelium Mart.
-Selon ITIS      (3 août 2014)[7] :
+Selon ITIS      (3 août 2014) :
 Hernandia L.
-Selon Tropicos                                           (3 août 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (3 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 Biasolettia C. Presl
 Coryzadenia Griff.
 Gyrocarpus Jacq.
